--- a/Supplementary_Data_Tables/Supplementary_Table7_gene_sets.xlsx
+++ b/Supplementary_Data_Tables/Supplementary_Table7_gene_sets.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="654">
   <si>
     <t>crm1_damp</t>
   </si>
@@ -1321,9 +1321,6 @@
   </si>
   <si>
     <t>SCS2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ER and Golgi transport </t>
   </si>
   <si>
     <t>sec66</t>
@@ -2030,12 +2027,18 @@
       <t xml:space="preserve"> genes that have significant positive interactions with at least one of the Gsp1 mutants. Gene sets were made manually, based on biological functions of genes described in the SGD database.</t>
     </r>
   </si>
+  <si>
+    <t>Cluster from Fig. 4b  (1-7, or expanded dataset, see Methods)</t>
+  </si>
+  <si>
+    <t>expanded dataset</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2078,6 +2081,28 @@
       <color theme="0"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2102,8 +2127,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2120,7 +2147,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2450,10 +2479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C491"/>
+  <dimension ref="A1:D491"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2461,27 +2490,32 @@
     <col min="1" max="1" width="12.1640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="36.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="83" customHeight="1">
+    <row r="1" spans="1:4" ht="83" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
-    </row>
-    <row r="2" spans="1:3" ht="53" customHeight="1">
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" ht="53" customHeight="1">
       <c r="A2" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -2491,8 +2525,11 @@
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2502,8 +2539,11 @@
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2513,8 +2553,11 @@
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -2524,8 +2567,11 @@
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -2535,8 +2581,11 @@
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -2546,8 +2595,11 @@
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -2557,8 +2609,11 @@
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -2568,8 +2623,11 @@
       <c r="C10" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -2579,8 +2637,11 @@
       <c r="C11" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -2590,8 +2651,11 @@
       <c r="C12" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
@@ -2601,8 +2665,11 @@
       <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="3" t="s">
         <v>20</v>
       </c>
@@ -2612,8 +2679,11 @@
       <c r="C14" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
@@ -2623,8 +2693,11 @@
       <c r="C15" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
@@ -2634,8 +2707,11 @@
       <c r="C16" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
@@ -2645,8 +2721,11 @@
       <c r="C17" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
         <v>29</v>
       </c>
@@ -2656,8 +2735,11 @@
       <c r="C18" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
         <v>31</v>
       </c>
@@ -2667,8 +2749,11 @@
       <c r="C19" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="3" t="s">
         <v>32</v>
       </c>
@@ -2678,8 +2763,11 @@
       <c r="C20" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="3" t="s">
         <v>34</v>
       </c>
@@ -2689,8 +2777,11 @@
       <c r="C21" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
         <v>36</v>
       </c>
@@ -2700,8 +2791,11 @@
       <c r="C22" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
         <v>38</v>
       </c>
@@ -2711,8 +2805,11 @@
       <c r="C23" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
         <v>40</v>
       </c>
@@ -2722,8 +2819,11 @@
       <c r="C24" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
         <v>42</v>
       </c>
@@ -2733,8 +2833,11 @@
       <c r="C25" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
         <v>44</v>
       </c>
@@ -2744,8 +2847,11 @@
       <c r="C26" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
         <v>46</v>
       </c>
@@ -2755,8 +2861,11 @@
       <c r="C27" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
         <v>48</v>
       </c>
@@ -2766,8 +2875,11 @@
       <c r="C28" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="3" t="s">
         <v>50</v>
       </c>
@@ -2777,8 +2889,11 @@
       <c r="C29" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="3" t="s">
         <v>52</v>
       </c>
@@ -2788,8 +2903,11 @@
       <c r="C30" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="3" t="s">
         <v>54</v>
       </c>
@@ -2799,8 +2917,11 @@
       <c r="C31" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="3" t="s">
         <v>56</v>
       </c>
@@ -2810,8 +2931,11 @@
       <c r="C32" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
         <v>58</v>
       </c>
@@ -2821,8 +2945,11 @@
       <c r="C33" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
         <v>60</v>
       </c>
@@ -2832,8 +2959,11 @@
       <c r="C34" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
         <v>62</v>
       </c>
@@ -2843,8 +2973,11 @@
       <c r="C35" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
         <v>63</v>
       </c>
@@ -2854,8 +2987,11 @@
       <c r="C36" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
         <v>64</v>
       </c>
@@ -2865,8 +3001,11 @@
       <c r="C37" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="3" t="s">
         <v>66</v>
       </c>
@@ -2876,8 +3015,11 @@
       <c r="C38" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="3" t="s">
         <v>68</v>
       </c>
@@ -2887,8 +3029,11 @@
       <c r="C39" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="3" t="s">
         <v>70</v>
       </c>
@@ -2898,8 +3043,11 @@
       <c r="C40" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="3" t="s">
         <v>24</v>
       </c>
@@ -2909,8 +3057,11 @@
       <c r="C41" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
+      <c r="D41" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
@@ -2920,8 +3071,11 @@
       <c r="C42" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="3" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3085,11 @@
       <c r="C43" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
+      <c r="D43" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="3" t="s">
         <v>44</v>
       </c>
@@ -2942,8 +3099,11 @@
       <c r="C44" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
+      <c r="D44" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="3" t="s">
         <v>46</v>
       </c>
@@ -2953,8 +3113,11 @@
       <c r="C45" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="3" t="s">
         <v>48</v>
       </c>
@@ -2964,8 +3127,11 @@
       <c r="C46" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="D46" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="3" t="s">
         <v>50</v>
       </c>
@@ -2975,8 +3141,11 @@
       <c r="C47" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="D47" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="3" t="s">
         <v>52</v>
       </c>
@@ -2986,8 +3155,11 @@
       <c r="C48" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
+      <c r="D48" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="3" t="s">
         <v>54</v>
       </c>
@@ -2997,8 +3169,11 @@
       <c r="C49" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
+      <c r="D49" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="3" t="s">
         <v>56</v>
       </c>
@@ -3008,8 +3183,11 @@
       <c r="C50" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="51" spans="1:3">
+      <c r="D50" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="3" t="s">
         <v>58</v>
       </c>
@@ -3019,8 +3197,11 @@
       <c r="C51" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="3" t="s">
         <v>60</v>
       </c>
@@ -3030,8 +3211,11 @@
       <c r="C52" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="3" t="s">
         <v>62</v>
       </c>
@@ -3041,8 +3225,11 @@
       <c r="C53" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="D53" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="3" t="s">
         <v>63</v>
       </c>
@@ -3052,8 +3239,11 @@
       <c r="C54" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="D54" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="3" t="s">
         <v>64</v>
       </c>
@@ -3063,8 +3253,11 @@
       <c r="C55" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="D55" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="3" t="s">
         <v>66</v>
       </c>
@@ -3074,8 +3267,11 @@
       <c r="C56" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
+      <c r="D56" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="3" t="s">
         <v>73</v>
       </c>
@@ -3085,8 +3281,11 @@
       <c r="C57" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="3" t="s">
         <v>76</v>
       </c>
@@ -3096,8 +3295,11 @@
       <c r="C58" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="3" t="s">
         <v>78</v>
       </c>
@@ -3107,8 +3309,11 @@
       <c r="C59" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
+      <c r="D59" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="3" t="s">
         <v>79</v>
       </c>
@@ -3118,8 +3323,11 @@
       <c r="C60" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="3" t="s">
         <v>81</v>
       </c>
@@ -3129,8 +3337,11 @@
       <c r="C61" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
+      <c r="D61" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="3" t="s">
         <v>83</v>
       </c>
@@ -3140,8 +3351,11 @@
       <c r="C62" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
+      <c r="D62" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="3" t="s">
         <v>85</v>
       </c>
@@ -3151,8 +3365,11 @@
       <c r="C63" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="64" spans="1:3">
+      <c r="D63" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="3" t="s">
         <v>86</v>
       </c>
@@ -3162,8 +3379,11 @@
       <c r="C64" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="3" t="s">
         <v>88</v>
       </c>
@@ -3173,8 +3393,11 @@
       <c r="C65" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="3" t="s">
         <v>90</v>
       </c>
@@ -3184,8 +3407,11 @@
       <c r="C66" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="3" t="s">
         <v>91</v>
       </c>
@@ -3195,8 +3421,11 @@
       <c r="C67" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="3" t="s">
         <v>93</v>
       </c>
@@ -3206,8 +3435,11 @@
       <c r="C68" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="3" t="s">
         <v>95</v>
       </c>
@@ -3217,8 +3449,11 @@
       <c r="C69" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="3" t="s">
         <v>97</v>
       </c>
@@ -3228,8 +3463,11 @@
       <c r="C70" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="3" t="s">
         <v>99</v>
       </c>
@@ -3239,8 +3477,11 @@
       <c r="C71" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="3" t="s">
         <v>101</v>
       </c>
@@ -3250,8 +3491,11 @@
       <c r="C72" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="3" t="s">
         <v>103</v>
       </c>
@@ -3261,8 +3505,11 @@
       <c r="C73" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="3" t="s">
         <v>105</v>
       </c>
@@ -3272,8 +3519,11 @@
       <c r="C74" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="3" t="s">
         <v>107</v>
       </c>
@@ -3283,8 +3533,11 @@
       <c r="C75" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="3" t="s">
         <v>109</v>
       </c>
@@ -3294,8 +3547,11 @@
       <c r="C76" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="3" t="s">
         <v>111</v>
       </c>
@@ -3305,8 +3561,11 @@
       <c r="C77" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="3" t="s">
         <v>113</v>
       </c>
@@ -3316,8 +3575,11 @@
       <c r="C78" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="3" t="s">
         <v>115</v>
       </c>
@@ -3327,8 +3589,11 @@
       <c r="C79" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="3" t="s">
         <v>117</v>
       </c>
@@ -3338,8 +3603,11 @@
       <c r="C80" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="3" t="s">
         <v>119</v>
       </c>
@@ -3349,8 +3617,11 @@
       <c r="C81" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="3" t="s">
         <v>120</v>
       </c>
@@ -3360,8 +3631,11 @@
       <c r="C82" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="3" t="s">
         <v>122</v>
       </c>
@@ -3371,8 +3645,11 @@
       <c r="C83" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="3" t="s">
         <v>124</v>
       </c>
@@ -3382,8 +3659,11 @@
       <c r="C84" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="D84" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="3" t="s">
         <v>126</v>
       </c>
@@ -3393,8 +3673,11 @@
       <c r="C85" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="D85" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="3" t="s">
         <v>128</v>
       </c>
@@ -3404,8 +3687,11 @@
       <c r="C86" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="D86" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="3" t="s">
         <v>130</v>
       </c>
@@ -3415,8 +3701,11 @@
       <c r="C87" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="D87" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="3" t="s">
         <v>132</v>
       </c>
@@ -3426,8 +3715,11 @@
       <c r="C88" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="D88" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="3" t="s">
         <v>134</v>
       </c>
@@ -3437,8 +3729,11 @@
       <c r="C89" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="D89" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="3" t="s">
         <v>136</v>
       </c>
@@ -3448,8 +3743,11 @@
       <c r="C90" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="D90" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="3" t="s">
         <v>137</v>
       </c>
@@ -3459,8 +3757,11 @@
       <c r="C91" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="D91" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="3" t="s">
         <v>139</v>
       </c>
@@ -3470,8 +3771,11 @@
       <c r="C92" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="D92" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="3" t="s">
         <v>141</v>
       </c>
@@ -3481,8 +3785,11 @@
       <c r="C93" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="D93" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="3" t="s">
         <v>143</v>
       </c>
@@ -3492,8 +3799,11 @@
       <c r="C94" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="3" t="s">
         <v>145</v>
       </c>
@@ -3503,8 +3813,11 @@
       <c r="C95" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="3" t="s">
         <v>147</v>
       </c>
@@ -3514,8 +3827,11 @@
       <c r="C96" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="3" t="s">
         <v>149</v>
       </c>
@@ -3525,8 +3841,11 @@
       <c r="C97" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="D97" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="3" t="s">
         <v>151</v>
       </c>
@@ -3536,8 +3855,11 @@
       <c r="C98" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="D98" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="3" t="s">
         <v>152</v>
       </c>
@@ -3547,8 +3869,11 @@
       <c r="C99" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="D99" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="3" t="s">
         <v>154</v>
       </c>
@@ -3558,8 +3883,11 @@
       <c r="C100" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="3" t="s">
         <v>155</v>
       </c>
@@ -3569,8 +3897,11 @@
       <c r="C101" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="D101" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="3" t="s">
         <v>157</v>
       </c>
@@ -3580,8 +3911,11 @@
       <c r="C102" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="3" t="s">
         <v>159</v>
       </c>
@@ -3591,8 +3925,11 @@
       <c r="C103" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="3" t="s">
         <v>161</v>
       </c>
@@ -3602,8 +3939,11 @@
       <c r="C104" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="D104" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" s="3" t="s">
         <v>162</v>
       </c>
@@ -3613,8 +3953,11 @@
       <c r="C105" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="D105" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" s="3" t="s">
         <v>164</v>
       </c>
@@ -3624,8 +3967,11 @@
       <c r="C106" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="D106" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" s="3" t="s">
         <v>166</v>
       </c>
@@ -3635,8 +3981,11 @@
       <c r="C107" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="D107" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" s="3" t="s">
         <v>73</v>
       </c>
@@ -3646,8 +3995,11 @@
       <c r="C108" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="D108" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" s="3" t="s">
         <v>79</v>
       </c>
@@ -3657,8 +4009,11 @@
       <c r="C109" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="D109" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" s="3" t="s">
         <v>93</v>
       </c>
@@ -3668,8 +4023,11 @@
       <c r="C110" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="D110" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" s="3" t="s">
         <v>105</v>
       </c>
@@ -3679,8 +4037,11 @@
       <c r="C111" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="D111" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" s="3" t="s">
         <v>107</v>
       </c>
@@ -3690,8 +4051,11 @@
       <c r="C112" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="D112" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" s="3" t="s">
         <v>117</v>
       </c>
@@ -3701,8 +4065,11 @@
       <c r="C113" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="D113" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" s="3" t="s">
         <v>119</v>
       </c>
@@ -3712,8 +4079,11 @@
       <c r="C114" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="D114" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" s="3" t="s">
         <v>120</v>
       </c>
@@ -3723,8 +4093,11 @@
       <c r="C115" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="D115" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" s="3" t="s">
         <v>126</v>
       </c>
@@ -3734,8 +4107,11 @@
       <c r="C116" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="D116" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" s="3" t="s">
         <v>128</v>
       </c>
@@ -3745,8 +4121,11 @@
       <c r="C117" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="D117" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" s="3" t="s">
         <v>132</v>
       </c>
@@ -3756,8 +4135,11 @@
       <c r="C118" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="D118" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" s="3" t="s">
         <v>134</v>
       </c>
@@ -3767,8 +4149,11 @@
       <c r="C119" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="D119" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" s="3" t="s">
         <v>136</v>
       </c>
@@ -3778,8 +4163,11 @@
       <c r="C120" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="D120" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" s="3" t="s">
         <v>137</v>
       </c>
@@ -3789,8 +4177,11 @@
       <c r="C121" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="D121" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" s="3" t="s">
         <v>139</v>
       </c>
@@ -3800,8 +4191,11 @@
       <c r="C122" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="D122" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" s="3" t="s">
         <v>159</v>
       </c>
@@ -3811,8 +4205,11 @@
       <c r="C123" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="124" spans="1:3">
+      <c r="D123" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" s="3" t="s">
         <v>161</v>
       </c>
@@ -3822,8 +4219,11 @@
       <c r="C124" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="D124" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" s="3" t="s">
         <v>169</v>
       </c>
@@ -3833,8 +4233,11 @@
       <c r="C125" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="126" spans="1:3">
+      <c r="D125" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" s="3" t="s">
         <v>172</v>
       </c>
@@ -3844,8 +4247,11 @@
       <c r="C126" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="127" spans="1:3">
+      <c r="D126" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" s="3" t="s">
         <v>173</v>
       </c>
@@ -3855,8 +4261,11 @@
       <c r="C127" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="D127" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" s="3" t="s">
         <v>175</v>
       </c>
@@ -3866,8 +4275,11 @@
       <c r="C128" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="129" spans="1:3">
+      <c r="D128" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" s="3" t="s">
         <v>176</v>
       </c>
@@ -3877,8 +4289,11 @@
       <c r="C129" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="130" spans="1:3">
+      <c r="D129" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" s="3" t="s">
         <v>178</v>
       </c>
@@ -3888,8 +4303,11 @@
       <c r="C130" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="131" spans="1:3">
+      <c r="D130" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" s="3" t="s">
         <v>180</v>
       </c>
@@ -3899,8 +4317,11 @@
       <c r="C131" s="2" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="132" spans="1:3">
+      <c r="D131" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" s="3" t="s">
         <v>181</v>
       </c>
@@ -3910,8 +4331,11 @@
       <c r="C132" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="133" spans="1:3">
+      <c r="D132" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" s="3" t="s">
         <v>184</v>
       </c>
@@ -3921,8 +4345,11 @@
       <c r="C133" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="134" spans="1:3">
+      <c r="D133" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" s="3" t="s">
         <v>186</v>
       </c>
@@ -3932,8 +4359,11 @@
       <c r="C134" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="135" spans="1:3">
+      <c r="D134" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" s="3" t="s">
         <v>188</v>
       </c>
@@ -3943,8 +4373,11 @@
       <c r="C135" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="136" spans="1:3">
+      <c r="D135" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" s="3" t="s">
         <v>190</v>
       </c>
@@ -3954,8 +4387,11 @@
       <c r="C136" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="137" spans="1:3">
+      <c r="D136" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" s="3" t="s">
         <v>191</v>
       </c>
@@ -3965,8 +4401,11 @@
       <c r="C137" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="138" spans="1:3">
+      <c r="D137" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" s="3" t="s">
         <v>193</v>
       </c>
@@ -3976,8 +4415,11 @@
       <c r="C138" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="139" spans="1:3">
+      <c r="D138" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" s="3" t="s">
         <v>194</v>
       </c>
@@ -3987,8 +4429,11 @@
       <c r="C139" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="140" spans="1:3">
+      <c r="D139" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" s="3" t="s">
         <v>196</v>
       </c>
@@ -3998,8 +4443,11 @@
       <c r="C140" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="141" spans="1:3">
+      <c r="D140" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141" s="3" t="s">
         <v>198</v>
       </c>
@@ -4009,8 +4457,11 @@
       <c r="C141" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="142" spans="1:3">
+      <c r="D141" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" s="3" t="s">
         <v>200</v>
       </c>
@@ -4020,8 +4471,11 @@
       <c r="C142" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="143" spans="1:3">
+      <c r="D142" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143" s="3" t="s">
         <v>201</v>
       </c>
@@ -4031,8 +4485,11 @@
       <c r="C143" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="144" spans="1:3">
+      <c r="D143" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144" s="3" t="s">
         <v>202</v>
       </c>
@@ -4042,8 +4499,11 @@
       <c r="C144" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="145" spans="1:3">
+      <c r="D144" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" s="3" t="s">
         <v>204</v>
       </c>
@@ -4053,8 +4513,11 @@
       <c r="C145" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="146" spans="1:3">
+      <c r="D145" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146" s="3" t="s">
         <v>206</v>
       </c>
@@ -4064,8 +4527,11 @@
       <c r="C146" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="147" spans="1:3">
+      <c r="D146" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147" s="3" t="s">
         <v>208</v>
       </c>
@@ -4075,8 +4541,11 @@
       <c r="C147" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="148" spans="1:3">
+      <c r="D147" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" s="3" t="s">
         <v>210</v>
       </c>
@@ -4086,8 +4555,11 @@
       <c r="C148" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="149" spans="1:3">
+      <c r="D148" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149" s="3" t="s">
         <v>212</v>
       </c>
@@ -4097,8 +4569,11 @@
       <c r="C149" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="150" spans="1:3">
+      <c r="D149" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150" s="3" t="s">
         <v>214</v>
       </c>
@@ -4108,8 +4583,11 @@
       <c r="C150" s="2" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="151" spans="1:3">
+      <c r="D150" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151" s="3" t="s">
         <v>217</v>
       </c>
@@ -4119,8 +4597,11 @@
       <c r="C151" s="2" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="152" spans="1:3">
+      <c r="D151" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152" s="3" t="s">
         <v>219</v>
       </c>
@@ -4130,8 +4611,11 @@
       <c r="C152" s="2" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="153" spans="1:3">
+      <c r="D152" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153" s="3" t="s">
         <v>221</v>
       </c>
@@ -4141,8 +4625,11 @@
       <c r="C153" s="2" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="154" spans="1:3">
+      <c r="D153" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" s="3" t="s">
         <v>223</v>
       </c>
@@ -4152,8 +4639,11 @@
       <c r="C154" s="2" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="155" spans="1:3">
+      <c r="D154" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155" s="3" t="s">
         <v>225</v>
       </c>
@@ -4163,8 +4653,11 @@
       <c r="C155" s="2" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="156" spans="1:3">
+      <c r="D155" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156" s="3" t="s">
         <v>227</v>
       </c>
@@ -4174,8 +4667,11 @@
       <c r="C156" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="157" spans="1:3">
+      <c r="D156" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157" s="3" t="s">
         <v>230</v>
       </c>
@@ -4185,8 +4681,11 @@
       <c r="C157" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="158" spans="1:3">
+      <c r="D157" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158" s="3" t="s">
         <v>231</v>
       </c>
@@ -4196,8 +4695,11 @@
       <c r="C158" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="159" spans="1:3">
+      <c r="D158" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
       <c r="A159" s="3" t="s">
         <v>232</v>
       </c>
@@ -4207,8 +4709,11 @@
       <c r="C159" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="160" spans="1:3">
+      <c r="D159" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
       <c r="A160" s="3" t="s">
         <v>233</v>
       </c>
@@ -4218,8 +4723,11 @@
       <c r="C160" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="161" spans="1:3">
+      <c r="D160" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161" s="3" t="s">
         <v>234</v>
       </c>
@@ -4229,8 +4737,11 @@
       <c r="C161" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="162" spans="1:3">
+      <c r="D161" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
       <c r="A162" s="3" t="s">
         <v>235</v>
       </c>
@@ -4240,8 +4751,11 @@
       <c r="C162" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="163" spans="1:3">
+      <c r="D162" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163" s="3" t="s">
         <v>236</v>
       </c>
@@ -4251,8 +4765,11 @@
       <c r="C163" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="164" spans="1:3">
+      <c r="D163" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164" s="3" t="s">
         <v>237</v>
       </c>
@@ -4262,8 +4779,11 @@
       <c r="C164" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="165" spans="1:3">
+      <c r="D164" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165" s="3" t="s">
         <v>239</v>
       </c>
@@ -4273,8 +4793,11 @@
       <c r="C165" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="166" spans="1:3">
+      <c r="D165" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166" s="3" t="s">
         <v>241</v>
       </c>
@@ -4284,8 +4807,11 @@
       <c r="C166" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="167" spans="1:3">
+      <c r="D166" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167" s="3" t="s">
         <v>243</v>
       </c>
@@ -4295,8 +4821,11 @@
       <c r="C167" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="168" spans="1:3">
+      <c r="D167" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168" s="3" t="s">
         <v>245</v>
       </c>
@@ -4306,8 +4835,11 @@
       <c r="C168" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="169" spans="1:3">
+      <c r="D168" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
       <c r="A169" s="3" t="s">
         <v>247</v>
       </c>
@@ -4317,8 +4849,11 @@
       <c r="C169" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="170" spans="1:3">
+      <c r="D169" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
       <c r="A170" s="3" t="s">
         <v>249</v>
       </c>
@@ -4328,8 +4863,11 @@
       <c r="C170" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="171" spans="1:3">
+      <c r="D170" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
       <c r="A171" s="3" t="s">
         <v>251</v>
       </c>
@@ -4339,8 +4877,11 @@
       <c r="C171" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="172" spans="1:3">
+      <c r="D171" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172" s="3" t="s">
         <v>253</v>
       </c>
@@ -4350,8 +4891,11 @@
       <c r="C172" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="173" spans="1:3">
+      <c r="D172" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
       <c r="A173" s="3" t="s">
         <v>254</v>
       </c>
@@ -4361,8 +4905,11 @@
       <c r="C173" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="174" spans="1:3">
+      <c r="D173" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
       <c r="A174" s="3" t="s">
         <v>255</v>
       </c>
@@ -4372,8 +4919,11 @@
       <c r="C174" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="175" spans="1:3">
+      <c r="D174" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
       <c r="A175" s="3" t="s">
         <v>257</v>
       </c>
@@ -4383,8 +4933,11 @@
       <c r="C175" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="176" spans="1:3">
+      <c r="D175" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
       <c r="A176" s="3" t="s">
         <v>259</v>
       </c>
@@ -4394,8 +4947,11 @@
       <c r="C176" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="177" spans="1:3">
+      <c r="D176" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
       <c r="A177" s="3" t="s">
         <v>261</v>
       </c>
@@ -4405,8 +4961,11 @@
       <c r="C177" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="178" spans="1:3">
+      <c r="D177" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
       <c r="A178" s="3" t="s">
         <v>263</v>
       </c>
@@ -4416,8 +4975,11 @@
       <c r="C178" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="179" spans="1:3">
+      <c r="D178" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
       <c r="A179" s="3" t="s">
         <v>265</v>
       </c>
@@ -4427,8 +4989,11 @@
       <c r="C179" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="180" spans="1:3">
+      <c r="D179" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
       <c r="A180" s="3" t="s">
         <v>267</v>
       </c>
@@ -4438,8 +5003,11 @@
       <c r="C180" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="181" spans="1:3">
+      <c r="D180" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
       <c r="A181" s="3" t="s">
         <v>270</v>
       </c>
@@ -4449,8 +5017,11 @@
       <c r="C181" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="182" spans="1:3">
+      <c r="D181" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
       <c r="A182" s="3" t="s">
         <v>272</v>
       </c>
@@ -4460,8 +5031,11 @@
       <c r="C182" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="183" spans="1:3">
+      <c r="D182" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
       <c r="A183" s="3" t="s">
         <v>274</v>
       </c>
@@ -4471,8 +5045,11 @@
       <c r="C183" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="184" spans="1:3">
+      <c r="D183" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
       <c r="A184" s="3" t="s">
         <v>276</v>
       </c>
@@ -4482,8 +5059,11 @@
       <c r="C184" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="185" spans="1:3">
+      <c r="D184" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
       <c r="A185" s="3" t="s">
         <v>278</v>
       </c>
@@ -4493,8 +5073,11 @@
       <c r="C185" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="186" spans="1:3">
+      <c r="D185" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
       <c r="A186" s="3" t="s">
         <v>280</v>
       </c>
@@ -4504,8 +5087,11 @@
       <c r="C186" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="187" spans="1:3">
+      <c r="D186" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
       <c r="A187" s="3" t="s">
         <v>282</v>
       </c>
@@ -4515,8 +5101,11 @@
       <c r="C187" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="188" spans="1:3">
+      <c r="D187" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
       <c r="A188" s="3" t="s">
         <v>284</v>
       </c>
@@ -4526,8 +5115,11 @@
       <c r="C188" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="189" spans="1:3">
+      <c r="D188" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
       <c r="A189" s="3" t="s">
         <v>286</v>
       </c>
@@ -4537,8 +5129,11 @@
       <c r="C189" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="190" spans="1:3">
+      <c r="D189" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
       <c r="A190" s="3" t="s">
         <v>288</v>
       </c>
@@ -4548,8 +5143,11 @@
       <c r="C190" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="191" spans="1:3">
+      <c r="D190" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
       <c r="A191" s="3" t="s">
         <v>290</v>
       </c>
@@ -4559,8 +5157,11 @@
       <c r="C191" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="192" spans="1:3">
+      <c r="D191" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
       <c r="A192" s="3" t="s">
         <v>292</v>
       </c>
@@ -4570,8 +5171,11 @@
       <c r="C192" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="193" spans="1:3">
+      <c r="D192" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
       <c r="A193" s="3" t="s">
         <v>294</v>
       </c>
@@ -4581,8 +5185,11 @@
       <c r="C193" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="194" spans="1:3">
+      <c r="D193" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
       <c r="A194" s="3" t="s">
         <v>296</v>
       </c>
@@ -4592,8 +5199,11 @@
       <c r="C194" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="195" spans="1:3">
+      <c r="D194" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
       <c r="A195" s="3" t="s">
         <v>298</v>
       </c>
@@ -4603,8 +5213,11 @@
       <c r="C195" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="196" spans="1:3">
+      <c r="D195" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
       <c r="A196" s="3" t="s">
         <v>300</v>
       </c>
@@ -4614,8 +5227,11 @@
       <c r="C196" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="197" spans="1:3">
+      <c r="D196" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
       <c r="A197" s="3" t="s">
         <v>302</v>
       </c>
@@ -4625,8 +5241,11 @@
       <c r="C197" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="198" spans="1:3">
+      <c r="D197" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
       <c r="A198" s="3" t="s">
         <v>304</v>
       </c>
@@ -4636,8 +5255,11 @@
       <c r="C198" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="199" spans="1:3">
+      <c r="D198" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
       <c r="A199" s="3" t="s">
         <v>306</v>
       </c>
@@ -4647,8 +5269,11 @@
       <c r="C199" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="200" spans="1:3">
+      <c r="D199" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
       <c r="A200" s="3" t="s">
         <v>308</v>
       </c>
@@ -4658,8 +5283,11 @@
       <c r="C200" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="201" spans="1:3">
+      <c r="D200" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
       <c r="A201" s="3" t="s">
         <v>310</v>
       </c>
@@ -4669,8 +5297,11 @@
       <c r="C201" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="202" spans="1:3">
+      <c r="D201" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
       <c r="A202" s="3" t="s">
         <v>312</v>
       </c>
@@ -4680,8 +5311,11 @@
       <c r="C202" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="203" spans="1:3">
+      <c r="D202" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
       <c r="A203" s="3" t="s">
         <v>314</v>
       </c>
@@ -4691,8 +5325,11 @@
       <c r="C203" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="204" spans="1:3">
+      <c r="D203" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
       <c r="A204" s="3" t="s">
         <v>316</v>
       </c>
@@ -4702,8 +5339,11 @@
       <c r="C204" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="205" spans="1:3">
+      <c r="D204" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
       <c r="A205" s="3" t="s">
         <v>318</v>
       </c>
@@ -4713,8 +5353,11 @@
       <c r="C205" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="206" spans="1:3">
+      <c r="D205" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
       <c r="A206" s="3" t="s">
         <v>320</v>
       </c>
@@ -4724,8 +5367,11 @@
       <c r="C206" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="207" spans="1:3">
+      <c r="D206" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
       <c r="A207" s="3" t="s">
         <v>322</v>
       </c>
@@ -4735,8 +5381,11 @@
       <c r="C207" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="208" spans="1:3">
+      <c r="D207" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
       <c r="A208" s="3" t="s">
         <v>324</v>
       </c>
@@ -4746,8 +5395,11 @@
       <c r="C208" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="209" spans="1:3">
+      <c r="D208" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
       <c r="A209" s="3" t="s">
         <v>326</v>
       </c>
@@ -4757,8 +5409,11 @@
       <c r="C209" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="210" spans="1:3">
+      <c r="D209" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
       <c r="A210" s="3" t="s">
         <v>329</v>
       </c>
@@ -4768,8 +5423,11 @@
       <c r="C210" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="211" spans="1:3">
+      <c r="D210" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
       <c r="A211" s="3" t="s">
         <v>331</v>
       </c>
@@ -4779,8 +5437,11 @@
       <c r="C211" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="212" spans="1:3">
+      <c r="D211" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
       <c r="A212" s="3" t="s">
         <v>333</v>
       </c>
@@ -4790,8 +5451,11 @@
       <c r="C212" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="213" spans="1:3">
+      <c r="D212" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
       <c r="A213" s="3" t="s">
         <v>336</v>
       </c>
@@ -4801,8 +5465,11 @@
       <c r="C213" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="214" spans="1:3">
+      <c r="D213" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
       <c r="A214" s="3" t="s">
         <v>338</v>
       </c>
@@ -4812,8 +5479,11 @@
       <c r="C214" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="215" spans="1:3">
+      <c r="D214" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
       <c r="A215" s="3" t="s">
         <v>340</v>
       </c>
@@ -4823,8 +5493,11 @@
       <c r="C215" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="216" spans="1:3">
+      <c r="D215" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
       <c r="A216" s="3" t="s">
         <v>341</v>
       </c>
@@ -4834,8 +5507,11 @@
       <c r="C216" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="217" spans="1:3">
+      <c r="D216" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
       <c r="A217" s="3" t="s">
         <v>343</v>
       </c>
@@ -4845,8 +5521,11 @@
       <c r="C217" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="218" spans="1:3">
+      <c r="D217" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
       <c r="A218" s="3" t="s">
         <v>345</v>
       </c>
@@ -4856,8 +5535,11 @@
       <c r="C218" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="219" spans="1:3">
+      <c r="D218" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
       <c r="A219" s="3" t="s">
         <v>347</v>
       </c>
@@ -4867,8 +5549,11 @@
       <c r="C219" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="220" spans="1:3">
+      <c r="D219" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
       <c r="A220" s="3" t="s">
         <v>350</v>
       </c>
@@ -4878,8 +5563,11 @@
       <c r="C220" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="221" spans="1:3">
+      <c r="D220" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
       <c r="A221" s="3" t="s">
         <v>352</v>
       </c>
@@ -4889,8 +5577,11 @@
       <c r="C221" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="222" spans="1:3">
+      <c r="D221" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
       <c r="A222" s="3" t="s">
         <v>354</v>
       </c>
@@ -4900,8 +5591,11 @@
       <c r="C222" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="223" spans="1:3">
+      <c r="D222" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
       <c r="A223" s="3" t="s">
         <v>356</v>
       </c>
@@ -4911,8 +5605,11 @@
       <c r="C223" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="224" spans="1:3">
+      <c r="D223" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
       <c r="A224" s="3" t="s">
         <v>357</v>
       </c>
@@ -4922,8 +5619,11 @@
       <c r="C224" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="225" spans="1:3">
+      <c r="D224" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
       <c r="A225" s="3" t="s">
         <v>358</v>
       </c>
@@ -4933,8 +5633,11 @@
       <c r="C225" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="226" spans="1:3">
+      <c r="D225" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
       <c r="A226" s="3" t="s">
         <v>360</v>
       </c>
@@ -4944,8 +5647,11 @@
       <c r="C226" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="227" spans="1:3">
+      <c r="D226" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
       <c r="A227" s="3" t="s">
         <v>362</v>
       </c>
@@ -4955,8 +5661,11 @@
       <c r="C227" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="228" spans="1:3">
+      <c r="D227" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
       <c r="A228" s="3" t="s">
         <v>364</v>
       </c>
@@ -4966,8 +5675,11 @@
       <c r="C228" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="229" spans="1:3">
+      <c r="D228" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
       <c r="A229" s="3" t="s">
         <v>365</v>
       </c>
@@ -4977,8 +5689,11 @@
       <c r="C229" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="230" spans="1:3">
+      <c r="D229" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
       <c r="A230" s="3" t="s">
         <v>155</v>
       </c>
@@ -4988,8 +5703,11 @@
       <c r="C230" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="231" spans="1:3">
+      <c r="D230" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
       <c r="A231" s="3" t="s">
         <v>157</v>
       </c>
@@ -4999,8 +5717,11 @@
       <c r="C231" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="232" spans="1:3">
+      <c r="D231" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
       <c r="A232" s="3" t="s">
         <v>367</v>
       </c>
@@ -5010,8 +5731,11 @@
       <c r="C232" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="233" spans="1:3">
+      <c r="D232" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
       <c r="A233" s="3" t="s">
         <v>368</v>
       </c>
@@ -5021,8 +5745,11 @@
       <c r="C233" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="234" spans="1:3">
+      <c r="D233" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
       <c r="A234" s="3" t="s">
         <v>370</v>
       </c>
@@ -5032,8 +5759,11 @@
       <c r="C234" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="235" spans="1:3">
+      <c r="D234" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
       <c r="A235" s="3" t="s">
         <v>371</v>
       </c>
@@ -5043,8 +5773,11 @@
       <c r="C235" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="236" spans="1:3">
+      <c r="D235" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
       <c r="A236" s="3" t="s">
         <v>372</v>
       </c>
@@ -5054,8 +5787,11 @@
       <c r="C236" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="237" spans="1:3">
+      <c r="D236" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
       <c r="A237" s="3" t="s">
         <v>373</v>
       </c>
@@ -5065,8 +5801,11 @@
       <c r="C237" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="238" spans="1:3">
+      <c r="D237" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
       <c r="A238" s="3" t="s">
         <v>374</v>
       </c>
@@ -5076,8 +5815,11 @@
       <c r="C238" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="239" spans="1:3">
+      <c r="D238" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
       <c r="A239" s="3" t="s">
         <v>376</v>
       </c>
@@ -5087,8 +5829,11 @@
       <c r="C239" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="240" spans="1:3">
+      <c r="D239" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
       <c r="A240" s="3" t="s">
         <v>377</v>
       </c>
@@ -5098,8 +5843,11 @@
       <c r="C240" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="241" spans="1:3">
+      <c r="D240" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
       <c r="A241" s="3" t="s">
         <v>378</v>
       </c>
@@ -5109,8 +5857,11 @@
       <c r="C241" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="242" spans="1:3">
+      <c r="D241" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
       <c r="A242" s="3" t="s">
         <v>379</v>
       </c>
@@ -5120,8 +5871,11 @@
       <c r="C242" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="243" spans="1:3">
+      <c r="D242" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
       <c r="A243" s="3" t="s">
         <v>381</v>
       </c>
@@ -5131,8 +5885,11 @@
       <c r="C243" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="244" spans="1:3">
+      <c r="D243" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
       <c r="A244" s="3" t="s">
         <v>383</v>
       </c>
@@ -5142,8 +5899,11 @@
       <c r="C244" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="245" spans="1:3">
+      <c r="D244" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
       <c r="A245" s="3" t="s">
         <v>385</v>
       </c>
@@ -5153,8 +5913,11 @@
       <c r="C245" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="246" spans="1:3">
+      <c r="D245" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
       <c r="A246" s="3" t="s">
         <v>387</v>
       </c>
@@ -5164,8 +5927,11 @@
       <c r="C246" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="247" spans="1:3">
+      <c r="D246" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
       <c r="A247" s="3" t="s">
         <v>73</v>
       </c>
@@ -5175,8 +5941,11 @@
       <c r="C247" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="248" spans="1:3">
+      <c r="D247" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
       <c r="A248" s="3" t="s">
         <v>76</v>
       </c>
@@ -5186,8 +5955,11 @@
       <c r="C248" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="249" spans="1:3">
+      <c r="D248" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
       <c r="A249" s="3" t="s">
         <v>78</v>
       </c>
@@ -5197,8 +5969,11 @@
       <c r="C249" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="250" spans="1:3">
+      <c r="D249" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
       <c r="A250" s="3" t="s">
         <v>388</v>
       </c>
@@ -5208,8 +5983,11 @@
       <c r="C250" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="251" spans="1:3">
+      <c r="D250" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
       <c r="A251" s="3" t="s">
         <v>79</v>
       </c>
@@ -5219,8 +5997,11 @@
       <c r="C251" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="252" spans="1:3">
+      <c r="D251" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
       <c r="A252" s="3" t="s">
         <v>81</v>
       </c>
@@ -5230,8 +6011,11 @@
       <c r="C252" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="253" spans="1:3">
+      <c r="D252" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
       <c r="A253" s="3" t="s">
         <v>83</v>
       </c>
@@ -5241,8 +6025,11 @@
       <c r="C253" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="254" spans="1:3">
+      <c r="D253" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
       <c r="A254" s="3" t="s">
         <v>85</v>
       </c>
@@ -5252,8 +6039,11 @@
       <c r="C254" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="255" spans="1:3">
+      <c r="D254" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
       <c r="A255" s="3" t="s">
         <v>86</v>
       </c>
@@ -5263,8 +6053,11 @@
       <c r="C255" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="256" spans="1:3">
+      <c r="D255" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
       <c r="A256" s="3" t="s">
         <v>88</v>
       </c>
@@ -5274,8 +6067,11 @@
       <c r="C256" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="257" spans="1:3">
+      <c r="D256" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
       <c r="A257" s="3" t="s">
         <v>90</v>
       </c>
@@ -5285,8 +6081,11 @@
       <c r="C257" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="258" spans="1:3">
+      <c r="D257" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
       <c r="A258" s="3" t="s">
         <v>93</v>
       </c>
@@ -5296,8 +6095,11 @@
       <c r="C258" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="259" spans="1:3">
+      <c r="D258" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
       <c r="A259" s="3" t="s">
         <v>95</v>
       </c>
@@ -5307,8 +6109,11 @@
       <c r="C259" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="260" spans="1:3">
+      <c r="D259" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
       <c r="A260" s="3" t="s">
         <v>97</v>
       </c>
@@ -5318,8 +6123,11 @@
       <c r="C260" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="261" spans="1:3">
+      <c r="D260" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
       <c r="A261" s="3" t="s">
         <v>99</v>
       </c>
@@ -5329,8 +6137,11 @@
       <c r="C261" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="262" spans="1:3">
+      <c r="D261" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
       <c r="A262" s="3" t="s">
         <v>101</v>
       </c>
@@ -5340,8 +6151,11 @@
       <c r="C262" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="263" spans="1:3">
+      <c r="D262" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
       <c r="A263" s="3" t="s">
         <v>103</v>
       </c>
@@ -5351,8 +6165,11 @@
       <c r="C263" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="264" spans="1:3">
+      <c r="D263" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
       <c r="A264" s="3" t="s">
         <v>105</v>
       </c>
@@ -5362,8 +6179,11 @@
       <c r="C264" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="265" spans="1:3">
+      <c r="D264" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
       <c r="A265" s="3" t="s">
         <v>107</v>
       </c>
@@ -5373,8 +6193,11 @@
       <c r="C265" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="266" spans="1:3">
+      <c r="D265" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
       <c r="A266" s="3" t="s">
         <v>109</v>
       </c>
@@ -5384,8 +6207,11 @@
       <c r="C266" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="267" spans="1:3">
+      <c r="D266" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
       <c r="A267" s="3" t="s">
         <v>111</v>
       </c>
@@ -5395,8 +6221,11 @@
       <c r="C267" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="268" spans="1:3">
+      <c r="D267" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
       <c r="A268" s="3" t="s">
         <v>113</v>
       </c>
@@ -5406,8 +6235,11 @@
       <c r="C268" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="269" spans="1:3">
+      <c r="D268" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
       <c r="A269" s="3" t="s">
         <v>115</v>
       </c>
@@ -5417,8 +6249,11 @@
       <c r="C269" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="270" spans="1:3">
+      <c r="D269" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
       <c r="A270" s="3" t="s">
         <v>117</v>
       </c>
@@ -5428,8 +6263,11 @@
       <c r="C270" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="271" spans="1:3">
+      <c r="D270" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
       <c r="A271" s="3" t="s">
         <v>119</v>
       </c>
@@ -5439,8 +6277,11 @@
       <c r="C271" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="272" spans="1:3">
+      <c r="D271" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
       <c r="A272" s="3" t="s">
         <v>120</v>
       </c>
@@ -5450,8 +6291,11 @@
       <c r="C272" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="273" spans="1:3">
+      <c r="D272" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
       <c r="A273" s="3" t="s">
         <v>122</v>
       </c>
@@ -5461,8 +6305,11 @@
       <c r="C273" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="274" spans="1:3">
+      <c r="D273" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
       <c r="A274" s="3" t="s">
         <v>124</v>
       </c>
@@ -5472,8 +6319,11 @@
       <c r="C274" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="275" spans="1:3">
+      <c r="D274" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
       <c r="A275" s="3" t="s">
         <v>126</v>
       </c>
@@ -5483,8 +6333,11 @@
       <c r="C275" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="276" spans="1:3">
+      <c r="D275" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
       <c r="A276" s="3" t="s">
         <v>128</v>
       </c>
@@ -5494,8 +6347,11 @@
       <c r="C276" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="277" spans="1:3">
+      <c r="D276" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
       <c r="A277" s="3" t="s">
         <v>130</v>
       </c>
@@ -5505,8 +6361,11 @@
       <c r="C277" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="278" spans="1:3">
+      <c r="D277" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
       <c r="A278" s="3" t="s">
         <v>132</v>
       </c>
@@ -5516,8 +6375,11 @@
       <c r="C278" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="279" spans="1:3">
+      <c r="D278" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
       <c r="A279" s="3" t="s">
         <v>134</v>
       </c>
@@ -5527,8 +6389,11 @@
       <c r="C279" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="280" spans="1:3">
+      <c r="D279" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
       <c r="A280" s="3" t="s">
         <v>136</v>
       </c>
@@ -5538,8 +6403,11 @@
       <c r="C280" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="281" spans="1:3">
+      <c r="D280" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
       <c r="A281" s="3" t="s">
         <v>137</v>
       </c>
@@ -5549,8 +6417,11 @@
       <c r="C281" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="282" spans="1:3">
+      <c r="D281" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
       <c r="A282" s="3" t="s">
         <v>139</v>
       </c>
@@ -5560,8 +6431,11 @@
       <c r="C282" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="283" spans="1:3">
+      <c r="D282" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
       <c r="A283" s="3" t="s">
         <v>389</v>
       </c>
@@ -5571,8 +6445,11 @@
       <c r="C283" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="284" spans="1:3">
+      <c r="D283" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
       <c r="A284" s="3" t="s">
         <v>143</v>
       </c>
@@ -5582,8 +6459,11 @@
       <c r="C284" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="285" spans="1:3">
+      <c r="D284" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
       <c r="A285" s="3" t="s">
         <v>145</v>
       </c>
@@ -5593,8 +6473,11 @@
       <c r="C285" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="286" spans="1:3">
+      <c r="D285" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
       <c r="A286" s="3" t="s">
         <v>147</v>
       </c>
@@ -5604,8 +6487,11 @@
       <c r="C286" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="287" spans="1:3">
+      <c r="D286" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
       <c r="A287" s="3" t="s">
         <v>149</v>
       </c>
@@ -5615,8 +6501,11 @@
       <c r="C287" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="288" spans="1:3">
+      <c r="D287" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
       <c r="A288" s="3" t="s">
         <v>151</v>
       </c>
@@ -5626,8 +6515,11 @@
       <c r="C288" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="289" spans="1:3">
+      <c r="D288" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
       <c r="A289" s="3" t="s">
         <v>152</v>
       </c>
@@ -5637,8 +6529,11 @@
       <c r="C289" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="290" spans="1:3">
+      <c r="D289" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
       <c r="A290" s="3" t="s">
         <v>154</v>
       </c>
@@ -5648,8 +6543,11 @@
       <c r="C290" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="291" spans="1:3">
+      <c r="D290" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
       <c r="A291" s="3" t="s">
         <v>159</v>
       </c>
@@ -5659,8 +6557,11 @@
       <c r="C291" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="292" spans="1:3">
+      <c r="D291" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
       <c r="A292" s="3" t="s">
         <v>161</v>
       </c>
@@ -5670,8 +6571,11 @@
       <c r="C292" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="293" spans="1:3">
+      <c r="D292" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
       <c r="A293" s="3" t="s">
         <v>162</v>
       </c>
@@ -5681,8 +6585,11 @@
       <c r="C293" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="294" spans="1:3">
+      <c r="D293" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
       <c r="A294" s="3" t="s">
         <v>164</v>
       </c>
@@ -5692,8 +6599,11 @@
       <c r="C294" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="295" spans="1:3">
+      <c r="D294" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
       <c r="A295" s="3" t="s">
         <v>166</v>
       </c>
@@ -5703,8 +6613,11 @@
       <c r="C295" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="296" spans="1:3">
+      <c r="D295" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
       <c r="A296" s="3" t="s">
         <v>227</v>
       </c>
@@ -5714,8 +6627,11 @@
       <c r="C296" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="297" spans="1:3">
+      <c r="D296" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
       <c r="A297" s="3" t="s">
         <v>230</v>
       </c>
@@ -5725,8 +6641,11 @@
       <c r="C297" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="298" spans="1:3">
+      <c r="D297" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
       <c r="A298" s="3" t="s">
         <v>231</v>
       </c>
@@ -5736,8 +6655,11 @@
       <c r="C298" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="299" spans="1:3">
+      <c r="D298" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
       <c r="A299" s="3" t="s">
         <v>232</v>
       </c>
@@ -5747,8 +6669,11 @@
       <c r="C299" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="300" spans="1:3">
+      <c r="D299" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
       <c r="A300" s="3" t="s">
         <v>233</v>
       </c>
@@ -5758,8 +6683,11 @@
       <c r="C300" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="301" spans="1:3">
+      <c r="D300" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
       <c r="A301" s="3" t="s">
         <v>234</v>
       </c>
@@ -5769,8 +6697,11 @@
       <c r="C301" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="302" spans="1:3">
+      <c r="D301" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
       <c r="A302" s="3" t="s">
         <v>235</v>
       </c>
@@ -5780,8 +6711,11 @@
       <c r="C302" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="303" spans="1:3">
+      <c r="D302" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
       <c r="A303" s="3" t="s">
         <v>236</v>
       </c>
@@ -5791,8 +6725,11 @@
       <c r="C303" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="304" spans="1:3">
+      <c r="D303" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
       <c r="A304" s="3" t="s">
         <v>237</v>
       </c>
@@ -5802,8 +6739,11 @@
       <c r="C304" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="305" spans="1:3">
+      <c r="D304" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
       <c r="A305" s="3" t="s">
         <v>239</v>
       </c>
@@ -5813,8 +6753,11 @@
       <c r="C305" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="306" spans="1:3">
+      <c r="D305" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
       <c r="A306" s="3" t="s">
         <v>391</v>
       </c>
@@ -5824,8 +6767,11 @@
       <c r="C306" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="307" spans="1:3">
+      <c r="D306" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
       <c r="A307" s="3" t="s">
         <v>393</v>
       </c>
@@ -5835,8 +6781,11 @@
       <c r="C307" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="308" spans="1:3">
+      <c r="D307" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
       <c r="A308" s="3" t="s">
         <v>241</v>
       </c>
@@ -5846,8 +6795,11 @@
       <c r="C308" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="309" spans="1:3">
+      <c r="D308" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
       <c r="A309" s="3" t="s">
         <v>243</v>
       </c>
@@ -5857,8 +6809,11 @@
       <c r="C309" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="310" spans="1:3">
+      <c r="D309" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
       <c r="A310" s="3" t="s">
         <v>395</v>
       </c>
@@ -5868,8 +6823,11 @@
       <c r="C310" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="311" spans="1:3">
+      <c r="D310" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
       <c r="A311" s="3" t="s">
         <v>245</v>
       </c>
@@ -5879,8 +6837,11 @@
       <c r="C311" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="312" spans="1:3">
+      <c r="D311" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
       <c r="A312" s="3" t="s">
         <v>247</v>
       </c>
@@ -5890,8 +6851,11 @@
       <c r="C312" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="313" spans="1:3">
+      <c r="D312" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
       <c r="A313" s="3" t="s">
         <v>397</v>
       </c>
@@ -5901,8 +6865,11 @@
       <c r="C313" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="314" spans="1:3">
+      <c r="D313" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
       <c r="A314" s="3" t="s">
         <v>249</v>
       </c>
@@ -5912,8 +6879,11 @@
       <c r="C314" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="315" spans="1:3">
+      <c r="D314" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
       <c r="A315" s="3" t="s">
         <v>399</v>
       </c>
@@ -5923,8 +6893,11 @@
       <c r="C315" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="316" spans="1:3">
+      <c r="D315" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
       <c r="A316" s="3" t="s">
         <v>251</v>
       </c>
@@ -5934,8 +6907,11 @@
       <c r="C316" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="317" spans="1:3">
+      <c r="D316" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
       <c r="A317" s="3" t="s">
         <v>253</v>
       </c>
@@ -5945,8 +6921,11 @@
       <c r="C317" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="318" spans="1:3">
+      <c r="D317" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
       <c r="A318" s="3" t="s">
         <v>254</v>
       </c>
@@ -5956,8 +6935,11 @@
       <c r="C318" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="319" spans="1:3">
+      <c r="D318" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
       <c r="A319" s="3" t="s">
         <v>401</v>
       </c>
@@ -5967,8 +6949,11 @@
       <c r="C319" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="320" spans="1:3">
+      <c r="D319" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
       <c r="A320" s="3" t="s">
         <v>255</v>
       </c>
@@ -5978,8 +6963,11 @@
       <c r="C320" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="321" spans="1:3">
+      <c r="D320" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
       <c r="A321" s="3" t="s">
         <v>257</v>
       </c>
@@ -5989,8 +6977,11 @@
       <c r="C321" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="322" spans="1:3">
+      <c r="D321" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
       <c r="A322" s="3" t="s">
         <v>403</v>
       </c>
@@ -6000,8 +6991,11 @@
       <c r="C322" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="323" spans="1:3">
+      <c r="D322" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
       <c r="A323" s="3" t="s">
         <v>259</v>
       </c>
@@ -6011,8 +7005,11 @@
       <c r="C323" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="324" spans="1:3">
+      <c r="D323" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
       <c r="A324" s="3" t="s">
         <v>261</v>
       </c>
@@ -6022,8 +7019,11 @@
       <c r="C324" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="325" spans="1:3">
+      <c r="D324" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
       <c r="A325" s="3" t="s">
         <v>405</v>
       </c>
@@ -6033,8 +7033,11 @@
       <c r="C325" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="326" spans="1:3">
+      <c r="D325" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
       <c r="A326" s="3" t="s">
         <v>407</v>
       </c>
@@ -6044,8 +7047,11 @@
       <c r="C326" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="327" spans="1:3">
+      <c r="D326" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
       <c r="A327" s="3" t="s">
         <v>409</v>
       </c>
@@ -6055,8 +7061,11 @@
       <c r="C327" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="328" spans="1:3">
+      <c r="D327" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
       <c r="A328" s="3" t="s">
         <v>411</v>
       </c>
@@ -6066,8 +7075,11 @@
       <c r="C328" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="329" spans="1:3">
+      <c r="D328" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
       <c r="A329" s="3" t="s">
         <v>413</v>
       </c>
@@ -6077,8 +7089,11 @@
       <c r="C329" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="330" spans="1:3">
+      <c r="D329" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
       <c r="A330" s="3" t="s">
         <v>415</v>
       </c>
@@ -6088,8 +7103,11 @@
       <c r="C330" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="331" spans="1:3">
+      <c r="D330" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
       <c r="A331" s="3" t="s">
         <v>417</v>
       </c>
@@ -6099,8 +7117,11 @@
       <c r="C331" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="332" spans="1:3">
+      <c r="D331" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
       <c r="A332" s="3" t="s">
         <v>263</v>
       </c>
@@ -6110,8 +7131,11 @@
       <c r="C332" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="333" spans="1:3">
+      <c r="D332" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
       <c r="A333" s="3" t="s">
         <v>265</v>
       </c>
@@ -6121,8 +7145,11 @@
       <c r="C333" s="2" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="334" spans="1:3">
+      <c r="D333" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
       <c r="A334" s="3" t="s">
         <v>419</v>
       </c>
@@ -6132,8 +7159,11 @@
       <c r="C334" s="2" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="335" spans="1:3">
+      <c r="D334" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
       <c r="A335" s="3" t="s">
         <v>422</v>
       </c>
@@ -6143,8 +7173,11 @@
       <c r="C335" s="2" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="336" spans="1:3">
+      <c r="D335" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
       <c r="A336" s="3" t="s">
         <v>424</v>
       </c>
@@ -6154,8 +7187,11 @@
       <c r="C336" s="2" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="337" spans="1:3">
+      <c r="D336" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
       <c r="A337" s="3" t="s">
         <v>426</v>
       </c>
@@ -6165,8 +7201,11 @@
       <c r="C337" s="2" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="338" spans="1:3">
+      <c r="D337" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
       <c r="A338" s="3" t="s">
         <v>428</v>
       </c>
@@ -6176,8 +7215,11 @@
       <c r="C338" s="2" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="339" spans="1:3">
+      <c r="D338" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
       <c r="A339" s="3" t="s">
         <v>430</v>
       </c>
@@ -6187,8 +7229,11 @@
       <c r="C339" s="2" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="340" spans="1:3">
+      <c r="D339" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
       <c r="A340" s="3" t="s">
         <v>432</v>
       </c>
@@ -6196,296 +7241,377 @@
         <v>433</v>
       </c>
       <c r="C340" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D340" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" s="3" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="341" spans="1:3">
-      <c r="A341" s="3" t="s">
+      <c r="B341" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="B341" s="3" t="s">
+      <c r="C341" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D341" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="C341" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3">
-      <c r="A342" s="3" t="s">
+      <c r="B342" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="B342" s="3" t="s">
+      <c r="C342" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D342" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="C342" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="343" spans="1:3">
-      <c r="A343" s="3" t="s">
+      <c r="B343" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="B343" s="3" t="s">
+      <c r="C343" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D343" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="C343" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3">
-      <c r="A344" s="3" t="s">
+      <c r="B344" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="B344" s="3" t="s">
+      <c r="C344" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D344" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="C344" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3">
-      <c r="A345" s="3" t="s">
+      <c r="B345" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B345" s="3" t="s">
+      <c r="C345" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D345" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="C345" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="346" spans="1:3">
-      <c r="A346" s="3" t="s">
+      <c r="B346" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="B346" s="3" t="s">
+      <c r="C346" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D346" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="C346" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="347" spans="1:3">
-      <c r="A347" s="3" t="s">
+      <c r="B347" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="B347" s="3" t="s">
+      <c r="C347" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D347" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="C347" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="348" spans="1:3">
-      <c r="A348" s="3" t="s">
+      <c r="B348" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="B348" s="3" t="s">
+      <c r="C348" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D348" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="C348" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="349" spans="1:3">
-      <c r="A349" s="3" t="s">
+      <c r="B349" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B349" s="3" t="s">
+      <c r="C349" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D349" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="C349" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="350" spans="1:3">
-      <c r="A350" s="3" t="s">
+      <c r="B350" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="B350" s="3" t="s">
+      <c r="C350" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D350" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="C350" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="351" spans="1:3">
-      <c r="A351" s="3" t="s">
+      <c r="B351" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="B351" s="3" t="s">
+      <c r="C351" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D351" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="C351" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="352" spans="1:3">
-      <c r="A352" s="3" t="s">
+      <c r="B352" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="B352" s="3" t="s">
+      <c r="C352" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D352" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="C352" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="353" spans="1:3">
-      <c r="A353" s="3" t="s">
+      <c r="B353" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="B353" s="3" t="s">
+      <c r="C353" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D353" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="C353" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="354" spans="1:3">
-      <c r="A354" s="3" t="s">
+      <c r="B354" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="B354" s="3" t="s">
+      <c r="C354" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D354" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="C354" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="355" spans="1:3">
-      <c r="A355" s="3" t="s">
-        <v>463</v>
-      </c>
       <c r="B355" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="356" spans="1:3">
+      <c r="D355" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
       <c r="A356" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="B356" s="3" t="s">
         <v>464</v>
-      </c>
-      <c r="B356" s="3" t="s">
-        <v>465</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="357" spans="1:3">
+      <c r="D356" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
       <c r="A357" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B357" s="3" t="s">
         <v>466</v>
-      </c>
-      <c r="B357" s="3" t="s">
-        <v>467</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="358" spans="1:3">
+      <c r="D357" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
       <c r="A358" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B358" s="3" t="s">
         <v>468</v>
-      </c>
-      <c r="B358" s="3" t="s">
-        <v>469</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="359" spans="1:3">
+      <c r="D358" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
       <c r="A359" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B359" s="3" t="s">
         <v>470</v>
-      </c>
-      <c r="B359" s="3" t="s">
-        <v>471</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="360" spans="1:3">
+      <c r="D359" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
       <c r="A360" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B360" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="B360" s="3" t="s">
+      <c r="C360" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D360" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="C360" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="361" spans="1:3">
-      <c r="A361" s="3" t="s">
+      <c r="B361" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="B361" s="3" t="s">
+      <c r="C361" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D361" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="C361" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="362" spans="1:3">
-      <c r="A362" s="3" t="s">
+      <c r="B362" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="B362" s="3" t="s">
+      <c r="C362" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D362" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="C362" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="363" spans="1:3">
-      <c r="A363" s="3" t="s">
+      <c r="B363" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="B363" s="3" t="s">
+      <c r="C363" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D363" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="C363" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="364" spans="1:3">
-      <c r="A364" s="3" t="s">
+      <c r="B364" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="B364" s="3" t="s">
+      <c r="C364" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D364" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="C364" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="365" spans="1:3">
-      <c r="A365" s="3" t="s">
+      <c r="B365" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="B365" s="3" t="s">
+      <c r="C365" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D365" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="C365" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="366" spans="1:3">
-      <c r="A366" s="3" t="s">
+      <c r="B366" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="B366" s="3" t="s">
-        <v>485</v>
-      </c>
       <c r="C366" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="367" spans="1:3">
+        <v>421</v>
+      </c>
+      <c r="D366" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
       <c r="A367" s="3" t="s">
         <v>417</v>
       </c>
@@ -6493,142 +7619,181 @@
         <v>418</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="368" spans="1:3">
+        <v>421</v>
+      </c>
+      <c r="D367" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
       <c r="A368" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="B368" s="3" t="s">
         <v>486</v>
-      </c>
-      <c r="B368" s="3" t="s">
-        <v>487</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="369" spans="1:3">
+      <c r="D368" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
       <c r="A369" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B369" s="3" t="s">
         <v>488</v>
-      </c>
-      <c r="B369" s="3" t="s">
-        <v>489</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="370" spans="1:3">
+      <c r="D369" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
       <c r="A370" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B370" s="3" t="s">
         <v>490</v>
-      </c>
-      <c r="B370" s="3" t="s">
-        <v>491</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="371" spans="1:3">
+      <c r="D370" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
       <c r="A371" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B371" s="3" t="s">
         <v>492</v>
-      </c>
-      <c r="B371" s="3" t="s">
-        <v>493</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="372" spans="1:3">
+      <c r="D371" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
       <c r="A372" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B372" s="3" t="s">
         <v>494</v>
-      </c>
-      <c r="B372" s="3" t="s">
-        <v>495</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="373" spans="1:3">
+      <c r="D372" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
       <c r="A373" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B373" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="B373" s="3" t="s">
+      <c r="C373" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D373" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="C373" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="374" spans="1:3">
-      <c r="A374" s="3" t="s">
+      <c r="B374" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="B374" s="3" t="s">
+      <c r="C374" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D374" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="C374" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="375" spans="1:3">
-      <c r="A375" s="3" t="s">
+      <c r="B375" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="B375" s="3" t="s">
+      <c r="C375" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D375" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="C375" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3">
-      <c r="A376" s="3" t="s">
+      <c r="B376" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="B376" s="3" t="s">
+      <c r="C376" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D376" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="C376" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3">
-      <c r="A377" s="3" t="s">
+      <c r="B377" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="B377" s="3" t="s">
+      <c r="C377" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="C377" s="2" t="s">
+      <c r="D377" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="3" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="378" spans="1:3">
-      <c r="A378" s="3" t="s">
+      <c r="B378" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="B378" s="3" t="s">
+      <c r="C378" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D378" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="C378" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="379" spans="1:3">
-      <c r="A379" s="3" t="s">
+      <c r="B379" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="B379" s="3" t="s">
-        <v>510</v>
-      </c>
       <c r="C379" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="380" spans="1:3">
+        <v>505</v>
+      </c>
+      <c r="D379" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
       <c r="A380" s="3" t="s">
         <v>68</v>
       </c>
@@ -6636,87 +7801,111 @@
         <v>69</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="381" spans="1:3">
+        <v>505</v>
+      </c>
+      <c r="D380" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
       <c r="A381" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B381" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B381" s="3" t="s">
+      <c r="C381" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D381" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="C381" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="382" spans="1:3">
-      <c r="A382" s="3" t="s">
+      <c r="B382" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="B382" s="3" t="s">
+      <c r="C382" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D382" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="C382" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="383" spans="1:3">
-      <c r="A383" s="3" t="s">
+      <c r="B383" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="B383" s="3" t="s">
+      <c r="C383" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D383" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="C383" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="384" spans="1:3">
-      <c r="A384" s="3" t="s">
+      <c r="B384" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="B384" s="3" t="s">
+      <c r="C384" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D384" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="C384" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="385" spans="1:3">
-      <c r="A385" s="3" t="s">
+      <c r="B385" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="B385" s="3" t="s">
+      <c r="C385" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D385" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="C385" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="386" spans="1:3">
-      <c r="A386" s="3" t="s">
+      <c r="B386" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="B386" s="3" t="s">
+      <c r="C386" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D386" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="C386" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="387" spans="1:3">
-      <c r="A387" s="3" t="s">
+      <c r="B387" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="B387" s="3" t="s">
-        <v>524</v>
-      </c>
       <c r="C387" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="388" spans="1:3">
+        <v>505</v>
+      </c>
+      <c r="D387" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
       <c r="A388" s="3" t="s">
         <v>143</v>
       </c>
@@ -6724,10 +7913,13 @@
         <v>144</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="389" spans="1:3">
+        <v>505</v>
+      </c>
+      <c r="D388" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
       <c r="A389" s="3" t="s">
         <v>145</v>
       </c>
@@ -6735,10 +7927,13 @@
         <v>146</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="390" spans="1:3">
+        <v>505</v>
+      </c>
+      <c r="D389" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
       <c r="A390" s="3" t="s">
         <v>149</v>
       </c>
@@ -6746,10 +7941,13 @@
         <v>150</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="391" spans="1:3">
+        <v>505</v>
+      </c>
+      <c r="D390" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
       <c r="A391" s="3" t="s">
         <v>151</v>
       </c>
@@ -6757,10 +7955,13 @@
         <v>150</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="392" spans="1:3">
+        <v>505</v>
+      </c>
+      <c r="D391" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
       <c r="A392" s="3" t="s">
         <v>152</v>
       </c>
@@ -6768,10 +7969,13 @@
         <v>153</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="393" spans="1:3">
+        <v>505</v>
+      </c>
+      <c r="D392" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
       <c r="A393" s="3" t="s">
         <v>154</v>
       </c>
@@ -6779,186 +7983,237 @@
         <v>153</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="394" spans="1:3">
+        <v>505</v>
+      </c>
+      <c r="D393" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
       <c r="A394" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="B394" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="B394" s="3" t="s">
+      <c r="C394" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D394" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="C394" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="395" spans="1:3">
-      <c r="A395" s="3" t="s">
+      <c r="B395" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="B395" s="3" t="s">
+      <c r="C395" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D395" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="C395" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="396" spans="1:3">
-      <c r="A396" s="3" t="s">
+      <c r="B396" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="B396" s="3" t="s">
+      <c r="C396" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D396" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="C396" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="397" spans="1:3">
-      <c r="A397" s="3" t="s">
+      <c r="B397" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="B397" s="3" t="s">
+      <c r="C397" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D397" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="C397" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="398" spans="1:3">
-      <c r="A398" s="3" t="s">
+      <c r="B398" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="B398" s="3" t="s">
+      <c r="C398" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D398" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="C398" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="399" spans="1:3">
-      <c r="A399" s="3" t="s">
+      <c r="B399" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="B399" s="3" t="s">
+      <c r="C399" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D399" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="C399" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="400" spans="1:3">
-      <c r="A400" s="3" t="s">
+      <c r="B400" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="B400" s="3" t="s">
+      <c r="C400" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D400" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="C400" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="401" spans="1:3">
-      <c r="A401" s="3" t="s">
+      <c r="B401" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="B401" s="3" t="s">
+      <c r="C401" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D401" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="C401" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="402" spans="1:3">
-      <c r="A402" s="3" t="s">
+      <c r="B402" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="B402" s="3" t="s">
+      <c r="C402" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D402" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="C402" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="403" spans="1:3">
-      <c r="A403" s="3" t="s">
+      <c r="B403" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="B403" s="3" t="s">
+      <c r="C403" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D403" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="C403" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="404" spans="1:3">
-      <c r="A404" s="3" t="s">
+      <c r="B404" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="B404" s="3" t="s">
+      <c r="C404" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D404" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="C404" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="405" spans="1:3">
-      <c r="A405" s="3" t="s">
+      <c r="B405" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="B405" s="3" t="s">
+      <c r="C405" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D405" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="C405" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3">
-      <c r="A406" s="3" t="s">
+      <c r="B406" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="B406" s="3" t="s">
+      <c r="C406" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D406" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="C406" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3">
-      <c r="A407" s="3" t="s">
+      <c r="B407" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="B407" s="3" t="s">
+      <c r="C407" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D407" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="C407" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="408" spans="1:3">
-      <c r="A408" s="3" t="s">
+      <c r="B408" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="B408" s="3" t="s">
+      <c r="C408" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D408" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="C408" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="409" spans="1:3">
-      <c r="A409" s="3" t="s">
+      <c r="B409" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="B409" s="3" t="s">
-        <v>556</v>
-      </c>
       <c r="C409" s="2" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="410" spans="1:3">
+        <v>505</v>
+      </c>
+      <c r="D409" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
       <c r="A410" s="3" t="s">
         <v>143</v>
       </c>
@@ -6966,10 +8221,13 @@
         <v>144</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="411" spans="1:3">
+        <v>556</v>
+      </c>
+      <c r="D410" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
       <c r="A411" s="3" t="s">
         <v>145</v>
       </c>
@@ -6977,10 +8235,13 @@
         <v>146</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="412" spans="1:3">
+        <v>556</v>
+      </c>
+      <c r="D411" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
       <c r="A412" s="3" t="s">
         <v>149</v>
       </c>
@@ -6988,10 +8249,13 @@
         <v>150</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="413" spans="1:3">
+        <v>556</v>
+      </c>
+      <c r="D412" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
       <c r="A413" s="3" t="s">
         <v>151</v>
       </c>
@@ -6999,10 +8263,13 @@
         <v>150</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="414" spans="1:3">
+        <v>556</v>
+      </c>
+      <c r="D413" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
       <c r="A414" s="3" t="s">
         <v>152</v>
       </c>
@@ -7010,10 +8277,13 @@
         <v>153</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="415" spans="1:3">
+        <v>556</v>
+      </c>
+      <c r="D414" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
       <c r="A415" s="3" t="s">
         <v>154</v>
       </c>
@@ -7021,10 +8291,13 @@
         <v>153</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3">
+        <v>556</v>
+      </c>
+      <c r="D415" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
       <c r="A416" s="3" t="s">
         <v>130</v>
       </c>
@@ -7032,10 +8305,13 @@
         <v>131</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="417" spans="1:3">
+        <v>556</v>
+      </c>
+      <c r="D416" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
       <c r="A417" s="3" t="s">
         <v>155</v>
       </c>
@@ -7043,10 +8319,13 @@
         <v>156</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3">
+        <v>556</v>
+      </c>
+      <c r="D417" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
       <c r="A418" s="3" t="s">
         <v>407</v>
       </c>
@@ -7054,318 +8333,405 @@
         <v>408</v>
       </c>
       <c r="C418" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="D418" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B419" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C419" s="2" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="419" spans="1:3">
-      <c r="A419" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="B419" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="C419" s="2" t="s">
+      <c r="D419" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="B420" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D420" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="B421" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D421" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="B422" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="C422" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D422" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="B423" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D423" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D424" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="B425" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="C425" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="D425" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" s="3" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="420" spans="1:3">
-      <c r="A420" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="B420" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="C420" s="2" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="421" spans="1:3">
-      <c r="A421" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="B421" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="C421" s="2" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="422" spans="1:3">
-      <c r="A422" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="B422" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="C422" s="2" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="423" spans="1:3">
-      <c r="A423" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="B423" s="3" t="s">
-        <v>548</v>
-      </c>
-      <c r="C423" s="2" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="424" spans="1:3">
-      <c r="A424" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="B424" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="C424" s="2" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3">
-      <c r="A425" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="B425" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="C425" s="2" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3">
-      <c r="A426" s="3" t="s">
+      <c r="B426" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="B426" s="3" t="s">
+      <c r="C426" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="C426" s="2" t="s">
+      <c r="D426" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427" s="3" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="427" spans="1:3">
-      <c r="A427" s="3" t="s">
+      <c r="B427" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="B427" s="3" t="s">
+      <c r="C427" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D427" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="C427" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="428" spans="1:3">
-      <c r="A428" s="3" t="s">
+      <c r="B428" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="B428" s="3" t="s">
+      <c r="C428" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D428" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="C428" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="429" spans="1:3">
-      <c r="A429" s="3" t="s">
+      <c r="B429" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="B429" s="3" t="s">
+      <c r="C429" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D429" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="C429" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="430" spans="1:3">
-      <c r="A430" s="3" t="s">
+      <c r="B430" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="B430" s="3" t="s">
+      <c r="C430" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D430" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="C430" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3">
-      <c r="A431" s="3" t="s">
+      <c r="B431" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="B431" s="3" t="s">
+      <c r="C431" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D431" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="C431" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3">
-      <c r="A432" s="3" t="s">
+      <c r="B432" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="B432" s="3" t="s">
+      <c r="C432" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D432" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="C432" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="433" spans="1:3">
-      <c r="A433" s="3" t="s">
+      <c r="B433" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="B433" s="3" t="s">
+      <c r="C433" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D433" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="C433" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="434" spans="1:3">
-      <c r="A434" s="3" t="s">
+      <c r="B434" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="B434" s="3" t="s">
+      <c r="C434" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D434" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="C434" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="435" spans="1:3">
-      <c r="A435" s="3" t="s">
+      <c r="B435" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="B435" s="3" t="s">
+      <c r="C435" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D435" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="C435" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="436" spans="1:3">
-      <c r="A436" s="3" t="s">
+      <c r="B436" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="B436" s="3" t="s">
+      <c r="C436" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D436" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="C436" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="437" spans="1:3">
-      <c r="A437" s="3" t="s">
+      <c r="B437" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="B437" s="3" t="s">
+      <c r="C437" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D437" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="C437" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="438" spans="1:3">
-      <c r="A438" s="3" t="s">
+      <c r="B438" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="B438" s="3" t="s">
+      <c r="C438" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D438" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="C438" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="439" spans="1:3">
-      <c r="A439" s="3" t="s">
+      <c r="B439" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="B439" s="3" t="s">
+      <c r="C439" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D439" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="C439" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="440" spans="1:3">
-      <c r="A440" s="3" t="s">
+      <c r="B440" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="B440" s="3" t="s">
+      <c r="C440" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D440" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="C440" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="441" spans="1:3">
-      <c r="A441" s="3" t="s">
+      <c r="B441" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="B441" s="3" t="s">
+      <c r="C441" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D441" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="C441" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="442" spans="1:3">
-      <c r="A442" s="3" t="s">
+      <c r="B442" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="B442" s="3" t="s">
+      <c r="C442" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D442" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="C442" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="443" spans="1:3">
-      <c r="A443" s="3" t="s">
+      <c r="B443" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="C443" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D443" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="B443" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="C443" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="444" spans="1:3">
-      <c r="A444" s="3" t="s">
+      <c r="B444" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="C444" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D444" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="A445" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="B444" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="C444" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3">
-      <c r="A445" s="3" t="s">
+      <c r="B445" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="B445" s="3" t="s">
+      <c r="C445" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="D445" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="C445" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="446" spans="1:3">
-      <c r="A446" s="3" t="s">
-        <v>598</v>
-      </c>
       <c r="B446" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="447" spans="1:3">
+        <v>560</v>
+      </c>
+      <c r="D446" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
       <c r="A447" s="3" t="s">
         <v>97</v>
       </c>
@@ -7373,87 +8739,111 @@
         <v>98</v>
       </c>
       <c r="C447" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D447" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="A448" s="3" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="448" spans="1:3">
-      <c r="A448" s="3" t="s">
+      <c r="B448" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="B448" s="3" t="s">
+      <c r="C448" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D448" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="A449" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="C448" s="2" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="449" spans="1:3">
-      <c r="A449" s="3" t="s">
+      <c r="B449" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="B449" s="3" t="s">
+      <c r="C449" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D449" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="C449" s="2" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="450" spans="1:3">
-      <c r="A450" s="3" t="s">
+      <c r="B450" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="C450" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D450" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="B450" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="C450" s="2" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="451" spans="1:3">
-      <c r="A451" s="3" t="s">
+      <c r="B451" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="B451" s="3" t="s">
+      <c r="C451" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D451" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="C451" s="2" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="452" spans="1:3">
-      <c r="A452" s="3" t="s">
+      <c r="B452" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="B452" s="3" t="s">
+      <c r="C452" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D452" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="C452" s="2" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="453" spans="1:3">
-      <c r="A453" s="3" t="s">
+      <c r="B453" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="B453" s="3" t="s">
+      <c r="C453" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D453" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="C453" s="2" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="454" spans="1:3">
-      <c r="A454" s="3" t="s">
+      <c r="B454" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="B454" s="3" t="s">
+      <c r="C454" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="C454" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="455" spans="1:3">
+      <c r="D454" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
       <c r="A455" s="3" t="s">
         <v>379</v>
       </c>
@@ -7461,10 +8851,13 @@
         <v>380</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="456" spans="1:3">
+        <v>612</v>
+      </c>
+      <c r="D455" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
       <c r="A456" s="3" t="s">
         <v>27</v>
       </c>
@@ -7472,10 +8865,13 @@
         <v>28</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="457" spans="1:3">
+        <v>612</v>
+      </c>
+      <c r="D456" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
       <c r="A457" s="3" t="s">
         <v>29</v>
       </c>
@@ -7483,10 +8879,13 @@
         <v>30</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="458" spans="1:3">
+        <v>612</v>
+      </c>
+      <c r="D457" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
       <c r="A458" s="3" t="s">
         <v>31</v>
       </c>
@@ -7494,10 +8893,13 @@
         <v>30</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="459" spans="1:3">
+        <v>612</v>
+      </c>
+      <c r="D458" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
       <c r="A459" s="3" t="s">
         <v>32</v>
       </c>
@@ -7505,10 +8907,13 @@
         <v>33</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="460" spans="1:3">
+        <v>612</v>
+      </c>
+      <c r="D459" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
       <c r="A460" s="3" t="s">
         <v>34</v>
       </c>
@@ -7516,10 +8921,13 @@
         <v>35</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="461" spans="1:3">
+        <v>612</v>
+      </c>
+      <c r="D460" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
       <c r="A461" s="3" t="s">
         <v>68</v>
       </c>
@@ -7527,10 +8935,13 @@
         <v>69</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="462" spans="1:3">
+        <v>612</v>
+      </c>
+      <c r="D461" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
       <c r="A462" s="3" t="s">
         <v>70</v>
       </c>
@@ -7538,32 +8949,41 @@
         <v>71</v>
       </c>
       <c r="C462" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D462" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4">
+      <c r="A463" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="B463" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C463" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="D463" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
+      <c r="A464" s="3" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="463" spans="1:3">
-      <c r="A463" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="B463" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="C463" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="464" spans="1:3">
-      <c r="A464" s="3" t="s">
+      <c r="B464" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="B464" s="3" t="s">
-        <v>615</v>
-      </c>
       <c r="C464" s="2" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="465" spans="1:3">
+        <v>612</v>
+      </c>
+      <c r="D464" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
       <c r="A465" s="3" t="s">
         <v>399</v>
       </c>
@@ -7571,54 +8991,69 @@
         <v>400</v>
       </c>
       <c r="C465" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D465" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4">
+      <c r="A466" s="3" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="466" spans="1:3">
-      <c r="A466" s="3" t="s">
+      <c r="B466" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="B466" s="3" t="s">
+      <c r="C466" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D466" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="C466" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="467" spans="1:3">
-      <c r="A467" s="3" t="s">
+      <c r="B467" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="B467" s="3" t="s">
+      <c r="C467" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D467" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="A468" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="B468" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D468" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="C467" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="468" spans="1:3">
-      <c r="A468" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="B468" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="C468" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="469" spans="1:3">
-      <c r="A469" s="3" t="s">
+      <c r="B469" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="B469" s="3" t="s">
-        <v>622</v>
-      </c>
       <c r="C469" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="470" spans="1:3">
+        <v>615</v>
+      </c>
+      <c r="D469" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
       <c r="A470" s="3" t="s">
         <v>417</v>
       </c>
@@ -7626,131 +9061,167 @@
         <v>418</v>
       </c>
       <c r="C470" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="471" spans="1:3">
+        <v>615</v>
+      </c>
+      <c r="D470" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
       <c r="A471" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="B471" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="B471" s="3" t="s">
+      <c r="C471" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D471" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="C471" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="472" spans="1:3">
-      <c r="A472" s="3" t="s">
+      <c r="B472" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="B472" s="3" t="s">
+      <c r="C472" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D472" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
+      <c r="A473" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B473" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C473" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D473" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
+      <c r="A474" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B474" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="C474" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D474" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
+      <c r="A475" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B475" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C475" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D475" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C472" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="473" spans="1:3">
-      <c r="A473" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="B473" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="C473" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="474" spans="1:3">
-      <c r="A474" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="B474" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="C474" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="475" spans="1:3">
-      <c r="A475" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="B475" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="C475" s="2" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3">
-      <c r="A476" s="3" t="s">
+      <c r="B476" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="B476" s="3" t="s">
+      <c r="C476" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="C476" s="2" t="s">
+      <c r="D476" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4">
+      <c r="A477" s="3" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="477" spans="1:3">
-      <c r="A477" s="3" t="s">
+      <c r="B477" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="B477" s="3" t="s">
+      <c r="C477" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="D477" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
+      <c r="A478" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="B478" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C478" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="D478" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4">
+      <c r="A479" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="C477" s="2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="478" spans="1:3">
-      <c r="A478" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="B478" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="C478" s="2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="479" spans="1:3">
-      <c r="A479" s="3" t="s">
+      <c r="B479" s="3" t="s">
         <v>632</v>
       </c>
-      <c r="B479" s="3" t="s">
-        <v>633</v>
-      </c>
       <c r="C479" s="2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3">
+        <v>628</v>
+      </c>
+      <c r="D479" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
       <c r="A480" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B480" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="B480" s="3" t="s">
-        <v>489</v>
-      </c>
       <c r="C480" s="2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="481" spans="1:3">
+        <v>628</v>
+      </c>
+      <c r="D480" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
       <c r="A481" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="B481" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="B481" s="3" t="s">
-        <v>448</v>
-      </c>
       <c r="C481" s="2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="482" spans="1:3">
+        <v>628</v>
+      </c>
+      <c r="D481" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4">
       <c r="A482" s="3" t="s">
         <v>178</v>
       </c>
@@ -7758,10 +9229,13 @@
         <v>179</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="483" spans="1:3">
+        <v>633</v>
+      </c>
+      <c r="D482" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4">
       <c r="A483" s="3" t="s">
         <v>180</v>
       </c>
@@ -7769,87 +9243,111 @@
         <v>179</v>
       </c>
       <c r="C483" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="D483" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4">
+      <c r="A484" s="3" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="484" spans="1:3">
-      <c r="A484" s="3" t="s">
+      <c r="B484" s="3" t="s">
         <v>635</v>
       </c>
-      <c r="B484" s="3" t="s">
+      <c r="C484" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="D484" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4">
+      <c r="A485" s="3" t="s">
         <v>636</v>
       </c>
-      <c r="C484" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="485" spans="1:3">
-      <c r="A485" s="3" t="s">
+      <c r="B485" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="C485" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="D485" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4">
+      <c r="A486" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="B485" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="C485" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="486" spans="1:3">
-      <c r="A486" s="3" t="s">
+      <c r="B486" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="B486" s="3" t="s">
+      <c r="C486" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="D486" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4">
+      <c r="A487" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="C486" s="2" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="487" spans="1:3">
-      <c r="A487" s="3" t="s">
+      <c r="B487" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="B487" s="3" t="s">
+      <c r="C487" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="C487" s="2" t="s">
+      <c r="D487" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4">
+      <c r="A488" s="3" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="488" spans="1:3">
-      <c r="A488" s="3" t="s">
+      <c r="B488" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="B488" s="3" t="s">
+      <c r="C488" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="D488" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4">
+      <c r="A489" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="C488" s="2" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="489" spans="1:3">
-      <c r="A489" s="3" t="s">
+      <c r="B489" s="3" t="s">
         <v>645</v>
       </c>
-      <c r="B489" s="3" t="s">
+      <c r="C489" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="D489" s="3" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4">
+      <c r="A490" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="C489" s="2" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="490" spans="1:3">
-      <c r="A490" s="3" t="s">
+      <c r="B490" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="B490" s="3" t="s">
-        <v>648</v>
-      </c>
       <c r="C490" s="2" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="491" spans="1:3">
+        <v>641</v>
+      </c>
+      <c r="D490" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4">
       <c r="A491" s="3" t="s">
         <v>259</v>
       </c>
@@ -7857,17 +9355,22 @@
         <v>260</v>
       </c>
       <c r="C491" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
+      </c>
+      <c r="D491" s="3">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
